--- a/biology/Zoologie/Penghou/Penghou.xlsx
+++ b/biology/Zoologie/Penghou/Penghou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Penghou (chinois : 彭侯 ; pinyin : Pénghoú ; litt. « Marquis Peng »), également connue en japonais sous la translittération Hōkō (彭侯?), est un esprit canin de la mythologie chinoise, également utilisé dans la mythologie japonaise, dans lesquelles il est un esprit arboricole.
@@ -516,7 +528,9 @@
           <t>Au Japon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pénghoú (lu en japonais comme Hōkō) a été inclus au XVIIIe siècle dans le Wakan Sansai Zue (和漢三才図会) de Terajima Ryōan (寺島良安), ainsi que dans le Konjaku Hyakki Shūi (今昔百鬼拾遺), un livre de la collection de Toriyama Sekien sur les illustrations de monstres. Il lui donna la même description que celle contenue dans le Soushenji tout en le faisant vivre dans un arbre vieux de mille ans.
 			Illustration du pénghoú par Terajima Ryōan dans Wakan Sansai Zue
